--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt BURLÖV.xlsx
+++ b/Översikt BURLÖV.xlsx
@@ -575,7 +575,7 @@
         <v>45981</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
